--- a/results/mp/logistic/corona/confidence/42/masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="133">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,87 +43,81 @@
     <t>arrested</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>infected</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
-    <t>hell</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>infected</t>
-  </si>
-  <si>
-    <t>uncertainty</t>
-  </si>
-  <si>
     <t>lowest</t>
   </si>
   <si>
-    <t>poor</t>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>recession</t>
+  </si>
+  <si>
+    <t>cancelled</t>
   </si>
   <si>
     <t>drop</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>pressure</t>
+    <t>saudi</t>
   </si>
   <si>
     <t>low</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>anxiety</t>
   </si>
   <si>
-    <t>saudi</t>
-  </si>
-  <si>
     <t>falling</t>
   </si>
   <si>
-    <t>recession</t>
-  </si>
-  <si>
     <t>shit</t>
   </si>
   <si>
@@ -133,30 +127,30 @@
     <t>no</t>
   </si>
   <si>
+    <t>shame</t>
+  </si>
+  <si>
     <t>cut</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>empty</t>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>isolation</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>isolation</t>
-  </si>
-  <si>
     <t>fight</t>
   </si>
   <si>
@@ -166,40 +160,43 @@
     <t>oil</t>
   </si>
   <si>
-    <t>buying</t>
+    <t>:</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
   <si>
     <t>prices</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>co</t>
-  </si>
-  <si>
-    <t>of</t>
+    <t>on</t>
   </si>
   <si>
     <t>19</t>
   </si>
   <si>
+    <t>are</t>
+  </si>
+  <si>
     <t>a</t>
   </si>
   <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>and</t>
   </si>
   <si>
     <t>corona</t>
@@ -211,52 +208,67 @@
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>sharing</t>
+    <t>great</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>positive</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>strong</t>
@@ -265,112 +277,100 @@
     <t>won</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>god</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>true</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>dear</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>giving</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>ready</t>
   </si>
   <si>
-    <t>dear</t>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>growth</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>growth</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>data</t>
   </si>
   <si>
     <t>helping</t>
@@ -379,28 +379,22 @@
     <t>give</t>
   </si>
   <si>
-    <t>data</t>
+    <t>increased</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>day</t>
+    <t>check</t>
   </si>
   <si>
     <t>shop</t>
   </si>
   <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>need</t>
-  </si>
-  <si>
     <t>amp</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>our</t>
   </si>
   <si>
     <t>you</t>
@@ -409,19 +403,16 @@
     <t>your</t>
   </si>
   <si>
-    <t>and</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>!</t>
   </si>
   <si>
+    <t>for</t>
+  </si>
+  <si>
     <t>?</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>for</t>
   </si>
 </sst>
 </file>
@@ -787,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -848,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8666666666666667</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -866,31 +857,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3">
+        <v>0.9565217391304348</v>
+      </c>
+      <c r="L3">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>44</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -898,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7945205479452054</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C4">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="D4">
-        <v>232</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -916,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K4">
-        <v>0.9230769230769231</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -940,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -948,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7941176470588235</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -969,7 +960,7 @@
         <v>7</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K5">
         <v>0.9152542372881356</v>
@@ -998,13 +989,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7894736842105263</v>
+        <v>0.8047945205479452</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1016,19 +1007,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K6">
-        <v>0.9083333333333333</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>109</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1040,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1048,13 +1039,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7894736842105263</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1066,19 +1057,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K7">
-        <v>0.8947368421052632</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1090,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1098,13 +1089,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7837837837837838</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1119,28 +1110,28 @@
         <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K8">
         <v>0.875</v>
       </c>
       <c r="L8">
+        <v>98</v>
+      </c>
+      <c r="M8">
+        <v>98</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1148,7 +1139,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7777777777777778</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C9">
         <v>28</v>
@@ -1166,10 +1157,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K9">
         <v>0.8666666666666667</v>
@@ -1198,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7666666666666667</v>
+        <v>0.7</v>
       </c>
       <c r="C10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1216,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K10">
-        <v>0.8660714285714286</v>
+        <v>0.8276762402088773</v>
       </c>
       <c r="L10">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="M10">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1240,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>15</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1248,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.76</v>
+        <v>0.6956521739130435</v>
       </c>
       <c r="C11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1266,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K11">
-        <v>0.835509138381201</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="L11">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>320</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1290,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1298,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7586206896551724</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D12">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1316,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8113207547169812</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1340,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1348,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6956521739130435</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1366,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K13">
-        <v>0.8055555555555556</v>
+        <v>0.8085106382978723</v>
       </c>
       <c r="L13">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M13">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1390,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1398,13 +1389,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6923076923076923</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1416,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K14">
-        <v>0.7890625</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="M14">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1440,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1448,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6842105263157895</v>
+        <v>0.68</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1466,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K15">
-        <v>0.7872340425531915</v>
+        <v>0.8</v>
       </c>
       <c r="L15">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="M15">
-        <v>37</v>
+        <v>128</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1490,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1519,16 +1510,16 @@
         <v>8</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K16">
-        <v>0.7830188679245284</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L16">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="M16">
-        <v>83</v>
+        <v>26</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1540,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1548,13 +1539,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6521739130434783</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1566,19 +1557,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K17">
-        <v>0.78125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L17">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M17">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1590,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1598,37 +1589,37 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.65</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="C18">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>13</v>
       </c>
-      <c r="D18">
-        <v>13</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>7</v>
-      </c>
       <c r="J18" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K18">
-        <v>0.7777777777777778</v>
+        <v>0.78125</v>
       </c>
       <c r="L18">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>21</v>
+        <v>100</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1640,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>6</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1648,13 +1639,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6101694915254238</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1666,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K19">
-        <v>0.7758620689655172</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L19">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="M19">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1690,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1698,13 +1689,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5503875968992248</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="C20">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="D20">
-        <v>284</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1716,19 +1707,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>232</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K20">
-        <v>0.7727272727272727</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1740,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1748,13 +1739,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.5502645502645502</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C21">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D21">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1766,19 +1757,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K21">
-        <v>0.7692307692307693</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L21">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="M21">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1790,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1798,13 +1789,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.5384615384615384</v>
+        <v>0.5686274509803921</v>
       </c>
       <c r="C22">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1816,19 +1807,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K22">
-        <v>0.7682926829268293</v>
+        <v>0.75</v>
       </c>
       <c r="L22">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="M22">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1840,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1848,13 +1839,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5333333333333333</v>
+        <v>0.5232558139534884</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="D23">
-        <v>16</v>
+        <v>270</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1866,19 +1857,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>14</v>
+        <v>246</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K23">
-        <v>0.7605633802816901</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L23">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="M23">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1890,7 +1881,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1898,13 +1889,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5294117647058824</v>
+        <v>0.5161290322580645</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1916,19 +1907,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K24">
-        <v>0.75</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L24">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="M24">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1940,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1948,13 +1939,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5185185185185185</v>
+        <v>0.5100671140939598</v>
       </c>
       <c r="C25">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1966,19 +1957,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25">
-        <v>0.75</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L25">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1990,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1998,13 +1989,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5033557046979866</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C26">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="D26">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -2016,19 +2007,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K26">
-        <v>0.7272727272727273</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2040,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2069,16 +2060,16 @@
         <v>16</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K27">
-        <v>0.7272727272727273</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M27">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2090,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2098,13 +2089,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.4838709677419355</v>
+        <v>0.45</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2116,19 +2107,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28">
-        <v>0.7209302325581395</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -2140,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2148,13 +2139,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.475</v>
+        <v>0.4358974358974359</v>
       </c>
       <c r="C29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2166,19 +2157,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K29">
-        <v>0.7142857142857143</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2190,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2198,13 +2189,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.4516129032258064</v>
+        <v>0.4266666666666667</v>
       </c>
       <c r="C30">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D30">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2216,19 +2207,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K30">
-        <v>0.6984126984126984</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2240,7 +2231,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2248,13 +2239,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4358974358974359</v>
+        <v>0.4055555555555556</v>
       </c>
       <c r="C31">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="D31">
-        <v>17</v>
+        <v>146</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2266,19 +2257,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K31">
-        <v>0.6588235294117647</v>
+        <v>0.675</v>
       </c>
       <c r="L31">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="M31">
-        <v>224</v>
+        <v>27</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2290,7 +2281,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2298,13 +2289,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4</v>
+        <v>0.4054054054054054</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2316,19 +2307,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K32">
-        <v>0.65</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2340,7 +2331,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2348,13 +2339,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3916666666666667</v>
+        <v>0.4</v>
       </c>
       <c r="C33">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="D33">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2366,19 +2357,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K33">
-        <v>0.6285714285714286</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L33">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M33">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2390,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2398,7 +2389,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3818181818181818</v>
+        <v>0.375</v>
       </c>
       <c r="C34">
         <v>21</v>
@@ -2416,19 +2407,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2440,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2448,13 +2439,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3636363636363636</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2466,19 +2457,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K35">
-        <v>0.625</v>
+        <v>0.64</v>
       </c>
       <c r="L35">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2490,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2498,13 +2489,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.358974358974359</v>
+        <v>0.3272727272727273</v>
       </c>
       <c r="C36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2516,19 +2507,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K36">
-        <v>0.62</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>217</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2540,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>19</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2548,13 +2539,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3214285714285715</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D37">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2566,19 +2557,19 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K37">
-        <v>0.6067415730337079</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L37">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M37">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2590,7 +2581,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2598,13 +2589,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3111111111111111</v>
+        <v>0.2745098039215687</v>
       </c>
       <c r="C38">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="D38">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2616,19 +2607,19 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K38">
-        <v>0.606694560669456</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L38">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="M38">
-        <v>145</v>
+        <v>178</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2640,7 +2631,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>94</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2648,13 +2639,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2597402597402597</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2666,19 +2657,19 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K39">
-        <v>0.5830508474576271</v>
+        <v>0.5983263598326359</v>
       </c>
       <c r="L39">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="M39">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2690,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2698,13 +2689,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.257936507936508</v>
+        <v>0.2</v>
       </c>
       <c r="C40">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2716,19 +2707,19 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>187</v>
+        <v>64</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K40">
-        <v>0.5714285714285714</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L40">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="M40">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2740,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>30</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2748,13 +2739,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.2549019607843137</v>
+        <v>0.1715817694369973</v>
       </c>
       <c r="C41">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="D41">
-        <v>13</v>
+        <v>64</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2766,19 +2757,19 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>38</v>
+        <v>309</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K41">
-        <v>0.5692307692307692</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L41">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="M41">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2790,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>28</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2798,13 +2789,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.225</v>
+        <v>0.08666666666666667</v>
       </c>
       <c r="C42">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D42">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2816,19 +2807,19 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K42">
-        <v>0.5652173913043478</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L42">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="M42">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2840,7 +2831,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2848,37 +2839,37 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.1635388739946381</v>
+        <v>0.01592718998862343</v>
       </c>
       <c r="C43">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="D43">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F43">
-        <v>1</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="G43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>312</v>
+        <v>865</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K43">
-        <v>0.5638297872340425</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L43">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="M43">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2890,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>41</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2898,37 +2889,37 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.07666666666666666</v>
+        <v>0.01559207753898019</v>
       </c>
       <c r="C44">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D44">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F44">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>277</v>
+        <v>2336</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K44">
-        <v>0.5454545454545454</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2940,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2948,28 +2939,28 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.04436860068259386</v>
+        <v>0.01548886737657309</v>
       </c>
       <c r="C45">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="D45">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>280</v>
+        <v>3051</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K45">
         <v>0.5357142857142857</v>
@@ -2998,37 +2989,37 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02239448751076658</v>
+        <v>0.0146551724137931</v>
       </c>
       <c r="C46">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="F46">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K46">
-        <v>0.5357142857142857</v>
+        <v>0.5168539325842697</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="M46">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -3040,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -3048,37 +3039,37 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0208</v>
+        <v>0.01404741000877963</v>
       </c>
       <c r="C47">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D47">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47">
-        <v>0.13</v>
+        <v>0.06</v>
       </c>
       <c r="F47">
-        <v>0.87</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>612</v>
+        <v>1123</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K47">
-        <v>0.5333333333333333</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -3090,7 +3081,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -3098,37 +3089,37 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01704545454545454</v>
+        <v>0.01217228464419476</v>
       </c>
       <c r="C48">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D48">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E48">
-        <v>0.12</v>
+        <v>0.21</v>
       </c>
       <c r="F48">
-        <v>0.88</v>
+        <v>0.79</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>865</v>
+        <v>2110</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K48">
-        <v>0.5185185185185185</v>
+        <v>0.5</v>
       </c>
       <c r="L48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -3148,28 +3139,28 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.01583198707592892</v>
+        <v>0.01105845181674566</v>
       </c>
       <c r="C49">
-        <v>49</v>
+        <v>14</v>
       </c>
       <c r="D49">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="E49">
-        <v>0.2</v>
+        <v>0.62</v>
       </c>
       <c r="F49">
-        <v>0.8</v>
+        <v>0.38</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>3046</v>
+        <v>1252</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K49">
         <v>0.5</v>
@@ -3198,37 +3189,37 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.01518346689160692</v>
+        <v>0.0104257167680278</v>
       </c>
       <c r="C50">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D50">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="E50">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="F50">
-        <v>0.8200000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>2335</v>
+        <v>2278</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K50">
-        <v>0.4761904761904762</v>
+        <v>0.5</v>
       </c>
       <c r="L50">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -3240,7 +3231,7 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -3248,49 +3239,49 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.009817671809256662</v>
+        <v>0.007867661892273553</v>
       </c>
       <c r="C51">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>78</v>
+      </c>
+      <c r="E51">
+        <v>0.5</v>
+      </c>
+      <c r="F51">
+        <v>0.5</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>4918</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K51">
+        <v>0.4878048780487805</v>
+      </c>
+      <c r="L51">
+        <v>20</v>
+      </c>
+      <c r="M51">
         <v>21</v>
       </c>
-      <c r="D51">
-        <v>25</v>
-      </c>
-      <c r="E51">
-        <v>0.16</v>
-      </c>
-      <c r="F51">
-        <v>0.84</v>
-      </c>
-      <c r="G51" t="b">
-        <v>1</v>
-      </c>
-      <c r="H51">
-        <v>2118</v>
-      </c>
-      <c r="J51" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K51">
-        <v>0.4642857142857143</v>
-      </c>
-      <c r="L51">
-        <v>13</v>
-      </c>
-      <c r="M51">
-        <v>13</v>
-      </c>
       <c r="N51">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -3298,37 +3289,37 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.00914235959947758</v>
+        <v>0.007591979754720654</v>
       </c>
       <c r="C52">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D52">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E52">
-        <v>0.36</v>
+        <v>0.42</v>
       </c>
       <c r="F52">
-        <v>0.64</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>2276</v>
+        <v>5098</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K52">
-        <v>0.4516129032258064</v>
+        <v>0.4642857142857143</v>
       </c>
       <c r="L52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -3340,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -3348,37 +3339,37 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.007210979297511049</v>
+        <v>0.007042253521126761</v>
       </c>
       <c r="C53">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="D53">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E53">
-        <v>0.48</v>
+        <v>0.65</v>
       </c>
       <c r="F53">
-        <v>0.52</v>
+        <v>0.35</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>4268</v>
+        <v>2397</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K53">
-        <v>0.4313725490196079</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L53">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="M53">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -3390,7 +3381,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -3398,31 +3389,31 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.007009345794392523</v>
+        <v>0.006045105789351314</v>
       </c>
       <c r="C54">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D54">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E54">
-        <v>0.45</v>
+        <v>0.51</v>
       </c>
       <c r="F54">
-        <v>0.55</v>
+        <v>0.49</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>5100</v>
+        <v>4275</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K54">
-        <v>0.3823529411764706</v>
+        <v>0.4193548387096774</v>
       </c>
       <c r="L54">
         <v>13</v>
@@ -3440,7 +3431,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -3448,37 +3439,37 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.006611570247933884</v>
+        <v>0.004927975739196361</v>
       </c>
       <c r="C55">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D55">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E55">
-        <v>0.61</v>
+        <v>0.73</v>
       </c>
       <c r="F55">
-        <v>0.39</v>
+        <v>0.27</v>
       </c>
       <c r="G55" t="b">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>2404</v>
+        <v>2625</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K55">
-        <v>0.34375</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -3490,7 +3481,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -3498,87 +3489,63 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.006445115810674723</v>
+        <v>0.004098360655737705</v>
       </c>
       <c r="C56">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D56">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="E56">
-        <v>0.49</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F56">
-        <v>0.51</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>4933</v>
+        <v>3159</v>
       </c>
       <c r="J56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="K56">
+        <v>0.358974358974359</v>
+      </c>
+      <c r="L56">
+        <v>28</v>
+      </c>
+      <c r="M56">
+        <v>28</v>
+      </c>
+      <c r="N56">
+        <v>1</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q56">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="J57" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="K56">
-        <v>0.3424657534246575</v>
-      </c>
-      <c r="L56">
-        <v>25</v>
-      </c>
-      <c r="M56">
-        <v>25</v>
-      </c>
-      <c r="N56">
-        <v>1</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q56">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17">
-      <c r="A57" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B57">
-        <v>0.005383153894870171</v>
-      </c>
-      <c r="C57">
-        <v>17</v>
-      </c>
-      <c r="D57">
-        <v>60</v>
-      </c>
-      <c r="E57">
-        <v>0.72</v>
-      </c>
-      <c r="F57">
-        <v>0.28</v>
-      </c>
-      <c r="G57" t="b">
-        <v>1</v>
-      </c>
-      <c r="H57">
-        <v>3141</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="K57">
-        <v>0.3333333333333333</v>
+        <v>0.328125</v>
       </c>
       <c r="L57">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M57">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -3590,47 +3557,47 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:17">
       <c r="J58" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K58">
-        <v>0.3275862068965517</v>
+        <v>0.2982456140350877</v>
       </c>
       <c r="L58">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M58">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N58">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59" spans="1:17">
       <c r="J59" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K59">
-        <v>0.2950819672131147</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M59">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -3642,21 +3609,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:17">
       <c r="J60" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K60">
-        <v>0.2807017543859649</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="L60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M60">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -3668,21 +3635,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="61" spans="1:17">
       <c r="J61" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K61">
-        <v>0.1048387096774194</v>
+        <v>0.1944444444444444</v>
       </c>
       <c r="L61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M61">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -3694,21 +3661,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>111</v>
+        <v>58</v>
       </c>
     </row>
     <row r="62" spans="1:17">
       <c r="J62" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K62">
-        <v>0.0979020979020979</v>
+        <v>0.1290322580645161</v>
       </c>
       <c r="L62">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M62">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -3720,21 +3687,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>129</v>
+        <v>108</v>
       </c>
     </row>
     <row r="63" spans="1:17">
       <c r="J63" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K63">
-        <v>0.08108108108108109</v>
+        <v>0.1192660550458716</v>
       </c>
       <c r="L63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M63">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -3746,41 +3713,41 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>170</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:17">
       <c r="J64" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K64">
-        <v>0.08024691358024691</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="L64">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="M64">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>149</v>
+        <v>163</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K65">
-        <v>0.04844290657439446</v>
+        <v>0.04011461318051576</v>
       </c>
       <c r="L65">
         <v>14</v>
@@ -3798,371 +3765,371 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>275</v>
+        <v>335</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K66">
-        <v>0.04584527220630372</v>
+        <v>0.0360576923076923</v>
       </c>
       <c r="L66">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M66">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N66">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q66">
-        <v>333</v>
+        <v>401</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K67">
-        <v>0.03846153846153846</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="L67">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M67">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>400</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K68">
-        <v>0.0342809364548495</v>
+        <v>0.02559414990859232</v>
       </c>
       <c r="L68">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="M68">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="N68">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O68">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q68">
-        <v>1155</v>
+        <v>533</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>130</v>
+        <v>54</v>
       </c>
       <c r="K69">
-        <v>0.0293040293040293</v>
+        <v>0.01803921568627451</v>
       </c>
       <c r="L69">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="M69">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="N69">
-        <v>0.9399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="O69">
-        <v>0.06000000000000005</v>
+        <v>0.38</v>
       </c>
       <c r="P69" t="b">
         <v>1</v>
       </c>
       <c r="Q69">
-        <v>530</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K70">
-        <v>0.01502629601803156</v>
+        <v>0.0144284128745838</v>
       </c>
       <c r="L70">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="M70">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="N70">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="O70">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>2622</v>
+        <v>888</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K71">
-        <v>0.01424211597151577</v>
+        <v>0.01422764227642276</v>
       </c>
       <c r="L71">
         <v>14</v>
       </c>
       <c r="M71">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N71">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="O71">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="P71" t="b">
         <v>1</v>
       </c>
       <c r="Q71">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="K72">
-        <v>0.01380753138075314</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="L72">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M72">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="N72">
-        <v>0.89</v>
+        <v>0.73</v>
       </c>
       <c r="O72">
-        <v>0.11</v>
+        <v>0.27</v>
       </c>
       <c r="P72" t="b">
         <v>1</v>
       </c>
       <c r="Q72">
-        <v>2357</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="K73">
-        <v>0.01350502512562814</v>
+        <v>0.01276771004942339</v>
       </c>
       <c r="L73">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="M73">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="N73">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="O73">
-        <v>0.28</v>
+        <v>0.35</v>
       </c>
       <c r="P73" t="b">
         <v>1</v>
       </c>
       <c r="Q73">
-        <v>3141</v>
+        <v>2397</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="K74">
-        <v>0.01029230135858378</v>
+        <v>0.01009463722397476</v>
       </c>
       <c r="L74">
+        <v>16</v>
+      </c>
+      <c r="M74">
         <v>25</v>
       </c>
-      <c r="M74">
-        <v>41</v>
-      </c>
       <c r="N74">
-        <v>0.61</v>
+        <v>0.64</v>
       </c>
       <c r="O74">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
       <c r="P74" t="b">
         <v>1</v>
       </c>
       <c r="Q74">
-        <v>2404</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K75">
-        <v>0.01016419077404222</v>
+        <v>0.009619406106231703</v>
       </c>
       <c r="L75">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M75">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="N75">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="O75">
-        <v>0.43</v>
+        <v>0.12</v>
       </c>
       <c r="P75" t="b">
         <v>1</v>
       </c>
       <c r="Q75">
-        <v>1266</v>
+        <v>2368</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>135</v>
+        <v>61</v>
       </c>
       <c r="K76">
-        <v>0.009445843828715366</v>
+        <v>0.009096612296110414</v>
       </c>
       <c r="L76">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M76">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N76">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="O76">
-        <v>0.29</v>
+        <v>0.3100000000000001</v>
       </c>
       <c r="P76" t="b">
         <v>1</v>
       </c>
       <c r="Q76">
-        <v>1573</v>
+        <v>3159</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K77">
-        <v>0.006748894577612288</v>
+        <v>0.007867661892273553</v>
       </c>
       <c r="L77">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="M77">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="N77">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="O77">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="P77" t="b">
         <v>1</v>
       </c>
       <c r="Q77">
-        <v>4268</v>
+        <v>4918</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K78">
-        <v>0.006244963738920225</v>
+        <v>0.006276150627615063</v>
       </c>
       <c r="L78">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M78">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="N78">
+        <v>0.51</v>
+      </c>
+      <c r="O78">
         <v>0.49</v>
       </c>
-      <c r="O78">
-        <v>0.51</v>
-      </c>
       <c r="P78" t="b">
         <v>1</v>
       </c>
       <c r="Q78">
-        <v>4933</v>
+        <v>4275</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K79">
-        <v>0.00565412361084032</v>
+        <v>0.005462348809988295</v>
       </c>
       <c r="L79">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M79">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N79">
-        <v>0.45</v>
+        <v>0.42</v>
       </c>
       <c r="O79">
-        <v>0.55</v>
+        <v>0.5800000000000001</v>
       </c>
       <c r="P79" t="b">
         <v>1</v>
       </c>
       <c r="Q79">
-        <v>5100</v>
+        <v>5098</v>
       </c>
     </row>
   </sheetData>
